--- a/doc/sine.xlsx
+++ b/doc/sine.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ba\rc radio project\New stuff\Beta19\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ba\rc radio project\New stuff\Beta23\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Degrees</t>
   </si>
@@ -664,7 +666,1205 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$3:$E$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-98</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-98</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AEF-4DE9-A8C1-C685BFAFAD41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328165400"/>
+        <c:axId val="328165072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328165400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328165072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328165072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328165400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$E$3:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-98</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F8-4A20-B068-F88D594A40D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328165400"/>
+        <c:axId val="328165072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328165400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328165072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328165072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328165400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1220,6 +2420,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1239,6 +3471,80 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1520,7 +3826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3650,4 +5956,4298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>A3*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>SIN(B3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>C3*100</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(D3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+2.8125</f>
+        <v>2.8125</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="0">A4*PI()/180</f>
+        <v>4.9087385212340517E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="1">SIN(B4)</f>
+        <v>4.9067674327418015E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="2">C4*100</f>
+        <v>4.9067674327418018</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="3">ROUND(D4,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>A4+2.8125</f>
+        <v>5.625</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>9.8174770424681035E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>9.8017140329560604E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>9.8017140329560597</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" ref="A6:A69" si="4">A5+2.8125</f>
+        <v>8.4375</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.14726215563702155</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.14673047445536175</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>14.673047445536175</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.19634954084936207</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.19509032201612825</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>19.509032201612825</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="4"/>
+        <v>14.0625</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.24543692606170259</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.24298017990326387</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>24.298017990326386</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="4"/>
+        <v>16.875</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.2945243112740431</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.29028467725446233</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>29.028467725446234</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>19.6875</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.34361169648638362</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.33688985339222005</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>33.688985339222008</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508978</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>38.268343236508976</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>25.3125</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.4417864669110646</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.42755509343028203</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>42.755509343028201</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>28.125</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.49087385212340517</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.47139673682599764</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>47.139673682599764</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>30.9375</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.53996123733574575</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.51410274419322177</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>51.410274419322178</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>33.75</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>55.557023301960214</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>36.5625</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.63813600776042678</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.59569930449243336</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>59.569930449243337</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>39.375</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.68722339297276724</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.63439328416364549</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>63.439328416364546</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>42.1875</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.73631077818510782</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.67155895484701844</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>67.155895484701844</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>70.710678118654741</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>47.8125</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.83448554860978874</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.74095112535495899</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>74.0951125354959</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>50.625</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.8835729338221292</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.77301045336273688</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>77.301045336273688</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>53.4375</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.93266031903446989</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.80320753148064494</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>80.320753148064497</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.98174770424681035</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>83.146961230254519</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>59.0625</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.0308350894591507</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.85772861000027201</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>85.772861000027206</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>61.875</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.0799224746714915</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.88192126434835505</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>88.192126434835501</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>64.6875</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.1290098598838318</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.90398929312344334</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>90.398929312344336</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>67.5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>92.387953251128678</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>70.3125</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.94154406518302081</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>94.154406518302082</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>73.125</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.2762720155208536</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.95694033573220894</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>95.694033573220892</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>75.9375</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.3253594007331939</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.97003125319454397</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>97.003125319454398</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>78.75</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.3744467859455345</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>98.07852804032305</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>81.5625</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.4235341711578751</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.98917650996478101</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>98.917650996478102</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>84.375</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.4726215563702156</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.99518472667219693</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>99.518472667219697</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>87.1875</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.521708941582556</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.99879545620517241</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>99.879545620517234</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>92.8125</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1.6198837120072371</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.99879545620517241</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>99.879545620517234</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>95.625</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1.6689710972195775</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.99518472667219693</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>99.518472667219697</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>98.4375</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1.7180584824319181</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.98917650996478101</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>98.917650996478102</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>101.25</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1.7671458676442584</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323054</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>98.07852804032305</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>104.0625</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.8162332528565992</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.97003125319454397</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>97.003125319454398</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>106.875</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.8653206380689398</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.95694033573220882</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>95.694033573220878</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>109.6875</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1.9144080232812801</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.94154406518302081</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>94.154406518302082</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>112.5</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.9634954084936207</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>92.387953251128678</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>115.3125</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.0125827937059615</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.90398929312344323</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>90.398929312344322</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>118.125</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2.0616701789183014</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.88192126434835527</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>88.192126434835529</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>120.9375</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2.1107575641306422</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.85772861000027212</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>85.772861000027206</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>123.75</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2.159844949342983</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254512</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>83.146961230254519</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>126.5625</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2.2089323345553233</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.80320753148064494</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>80.320753148064497</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>129.375</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>2.2580197197676637</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.7730104533627371</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>77.301045336273717</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>132.1875</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>2.3071071049800045</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.74095112535495899</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>74.0951125354959</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="4"/>
+        <v>137.8125</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2.4052818754046852</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.67155895484701855</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>67.155895484701858</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="4"/>
+        <v>140.625</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>2.454369260617026</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.63439328416364549</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>63.439328416364546</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="4"/>
+        <v>143.4375</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>2.5034566458293663</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.59569930449243347</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>59.569930449243344</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="4"/>
+        <v>146.25</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2.5525440310417071</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>55.557023301960214</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="4"/>
+        <v>149.0625</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2.6016314162540475</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.51410274419322177</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>51.410274419322178</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="4"/>
+        <v>151.875</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.47139673682599786</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>47.139673682599785</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>154.6875</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>2.6998061866787286</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.42755509343028203</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>42.755509343028201</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>157.5</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>2.748893571891069</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508989</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>38.26834323650899</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>160.3125</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>2.7979809571034093</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.33688985339222033</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>33.688985339222036</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>163.125</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2.8470683423157501</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.29028467725446239</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>29.028467725446237</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>165.9375</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>2.8961557275280905</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.24298017990326407</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>24.298017990326407</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>168.75</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>2.9452431127404313</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.19509032201612816</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>19.509032201612815</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>171.5625</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>2.9943304979527712</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.14673047445536225</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>14.673047445536225</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>174.375</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>3.043417883165112</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>9.8017140329560826E-2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>9.8017140329560828</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>177.1875</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>3.0925052683774528</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>4.9067674327417966E-2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>4.9067674327417965</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>1.22514845490862E-14</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>182.8125</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B102" si="5">A68*PI()/180</f>
+        <v>3.1906800388021339</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C102" si="6">SIN(B68)</f>
+        <v>-4.9067674327418168E-2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D102" si="7">C68*100</f>
+        <v>-4.9067674327418169</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E102" si="8">ROUND(D68,0)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>185.625</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>3.2397674240144743</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>-9.801714032956059E-2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>-9.8017140329560597</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" ref="A70:A130" si="9">A69+2.8125</f>
+        <v>188.4375</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>3.2888548092268146</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>-0.14673047445536158</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>-14.673047445536158</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="8"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="9"/>
+        <v>191.25</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>3.337942194439155</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>-0.19509032201612792</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>-19.50903220161279</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="9"/>
+        <v>194.0625</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>3.3870295796514958</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>-0.24298017990326382</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>-24.298017990326382</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="9"/>
+        <v>196.875</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>3.4361169648638361</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>-0.29028467725446211</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>-29.028467725446212</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="9"/>
+        <v>199.6875</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>3.4852043500761769</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>-0.33688985339222011</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>-33.688985339222008</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="9"/>
+        <v>202.5</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>3.5342917352885168</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>-0.38268343236508923</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>-38.268343236508926</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="8"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="9"/>
+        <v>205.3125</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>3.5833791205008576</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>-0.42755509343028181</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>-42.75550934302818</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="9"/>
+        <v>208.125</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>3.6324665057131984</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>-0.47139673682599764</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>-47.139673682599764</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="8"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="9"/>
+        <v>210.9375</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>3.6815538909255388</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>-0.51410274419322155</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>-51.410274419322157</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="9"/>
+        <v>213.75</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>3.7306412761378795</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>-0.55557023301960229</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>-55.557023301960228</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="9"/>
+        <v>216.5625</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>3.7797286613502199</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>-0.59569930449243325</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="7"/>
+        <v>-59.569930449243323</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="8"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="9"/>
+        <v>219.375</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>3.8288160465625602</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>-0.63439328416364527</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="7"/>
+        <v>-63.439328416364525</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="8"/>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="9"/>
+        <v>222.1875</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>3.8779034317749006</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>-0.67155895484701811</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="7"/>
+        <v>-67.155895484701816</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="8"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="7"/>
+        <v>-70.710678118654741</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="8"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="9"/>
+        <v>227.8125</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>3.9760782021995817</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>-0.74095112535495888</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>-74.095112535495886</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="8"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="9"/>
+        <v>230.625</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>4.025165587411923</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>-0.77301045336273722</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>-77.301045336273717</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="8"/>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="9"/>
+        <v>233.4375</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>4.0742529726242633</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>-0.80320753148064505</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>-80.320753148064512</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="8"/>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="9"/>
+        <v>236.25</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>4.1233403578366028</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>-0.83146961230254479</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>-83.146961230254476</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="8"/>
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="9"/>
+        <v>239.0625</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>4.172427743048944</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>-0.85772861000027201</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>-85.772861000027206</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="8"/>
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="9"/>
+        <v>241.875</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>4.2215151282612844</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>-0.88192126434835494</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>-88.192126434835501</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="8"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="9"/>
+        <v>244.6875</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>4.2706025134736247</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>-0.90398929312344312</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>-90.398929312344308</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="8"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="9"/>
+        <v>247.5</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>4.319689898685966</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>-0.92387953251128685</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>-92.387953251128678</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="8"/>
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="9"/>
+        <v>250.3125</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>4.3687772838983063</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>-0.94154406518302081</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>-94.154406518302082</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="8"/>
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="9"/>
+        <v>253.125</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>4.4178646691106467</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>-0.95694033573220882</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>-95.694033573220878</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="8"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="9"/>
+        <v>255.9375</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>4.466952054322987</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>-0.97003125319454397</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="7"/>
+        <v>-97.003125319454398</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="8"/>
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="9"/>
+        <v>258.75</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>4.5160394395353274</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>-0.98078528040323032</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="7"/>
+        <v>-98.078528040323036</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="9"/>
+        <v>261.5625</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>4.5651268247476686</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>-0.98917650996478101</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="7"/>
+        <v>-98.917650996478102</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="8"/>
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="9"/>
+        <v>264.375</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>4.614214209960009</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>-99.518472667219697</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="8"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="9"/>
+        <v>267.1875</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>4.6633015951723484</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>-0.99879545620517229</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>-99.879545620517234</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>-100</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="9"/>
+        <v>272.8125</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>4.76147636559703</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>-0.99879545620517241</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>-99.879545620517234</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="9"/>
+        <v>275.625</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>4.8105637508093704</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="6"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>-99.518472667219697</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="9"/>
+        <v>278.4375</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="5"/>
+        <v>4.8596511360217116</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="6"/>
+        <v>-0.9891765099647809</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>-98.917650996478088</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="9"/>
+        <v>281.25</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103:B130" si="10">A103*PI()/180</f>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C130" si="11">SIN(B103)</f>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="D103:D130" si="12">C103*100</f>
+        <v>-98.07852804032305</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103:E130" si="13">ROUND(D103,0)</f>
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="9"/>
+        <v>284.0625</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="10"/>
+        <v>4.9578259064463923</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="11"/>
+        <v>-0.97003125319454397</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="12"/>
+        <v>-97.003125319454398</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="13"/>
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="9"/>
+        <v>286.875</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="10"/>
+        <v>5.0069132916587327</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="11"/>
+        <v>-0.95694033573220894</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="12"/>
+        <v>-95.694033573220892</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="13"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="9"/>
+        <v>289.6875</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="10"/>
+        <v>5.056000676871073</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="11"/>
+        <v>-0.94154406518302092</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="12"/>
+        <v>-94.154406518302096</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="13"/>
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="9"/>
+        <v>292.5</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="10"/>
+        <v>5.1050880620834143</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="11"/>
+        <v>-0.92387953251128663</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="12"/>
+        <v>-92.387953251128664</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="13"/>
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="9"/>
+        <v>295.3125</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="10"/>
+        <v>5.1541754472957546</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="11"/>
+        <v>-0.90398929312344334</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="12"/>
+        <v>-90.398929312344336</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="13"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="9"/>
+        <v>298.125</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="10"/>
+        <v>5.203262832508095</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="11"/>
+        <v>-0.88192126434835505</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="12"/>
+        <v>-88.192126434835501</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="13"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="9"/>
+        <v>300.9375</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="10"/>
+        <v>5.2523502177204353</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="11"/>
+        <v>-0.85772861000027223</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="12"/>
+        <v>-85.77286100002722</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="13"/>
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="9"/>
+        <v>303.75</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="10"/>
+        <v>5.3014376029327757</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="11"/>
+        <v>-0.83146961230254546</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="12"/>
+        <v>-83.146961230254547</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="13"/>
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="9"/>
+        <v>306.5625</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="10"/>
+        <v>5.350524988145116</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="11"/>
+        <v>-0.80320753148064528</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="12"/>
+        <v>-80.320753148064526</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="13"/>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="9"/>
+        <v>309.375</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="10"/>
+        <v>5.3996123733574573</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="11"/>
+        <v>-0.77301045336273688</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="12"/>
+        <v>-77.301045336273688</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="13"/>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="9"/>
+        <v>312.1875</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="10"/>
+        <v>5.4486997585697976</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="11"/>
+        <v>-0.74095112535495911</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="12"/>
+        <v>-74.095112535495915</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="13"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="9"/>
+        <v>315</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="10"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="11"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="12"/>
+        <v>-70.710678118654769</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="13"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="9"/>
+        <v>317.8125</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="10"/>
+        <v>5.5468745289944783</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="11"/>
+        <v>-0.67155895484701866</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="12"/>
+        <v>-67.155895484701873</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="13"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="9"/>
+        <v>320.625</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="10"/>
+        <v>5.5959619142068187</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="11"/>
+        <v>-0.63439328416364593</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="12"/>
+        <v>-63.439328416364596</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="13"/>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="9"/>
+        <v>323.4375</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="10"/>
+        <v>5.6450492994191599</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="11"/>
+        <v>-0.59569930449243325</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="12"/>
+        <v>-59.569930449243323</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="13"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="9"/>
+        <v>326.25</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="10"/>
+        <v>5.6941366846315002</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="11"/>
+        <v>-0.55557023301960218</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="12"/>
+        <v>-55.557023301960214</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="13"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="9"/>
+        <v>329.0625</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="10"/>
+        <v>5.7432240698438397</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="11"/>
+        <v>-0.51410274419322266</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="12"/>
+        <v>-51.410274419322263</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="13"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="9"/>
+        <v>331.875</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="10"/>
+        <v>5.7923114550561809</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="11"/>
+        <v>-0.47139673682599792</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="12"/>
+        <v>-47.139673682599792</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="13"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="9"/>
+        <v>334.6875</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="10"/>
+        <v>5.8413988402685213</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="11"/>
+        <v>-0.42755509343028253</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="12"/>
+        <v>-42.755509343028251</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="13"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="9"/>
+        <v>337.5</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="10"/>
+        <v>5.8904862254808625</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="11"/>
+        <v>-0.38268343236508956</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="12"/>
+        <v>-38.268343236508954</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="13"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="9"/>
+        <v>340.3125</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="10"/>
+        <v>5.9395736106932029</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="11"/>
+        <v>-0.33688985339222</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="12"/>
+        <v>-33.688985339222</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="13"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="9"/>
+        <v>343.125</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="10"/>
+        <v>5.9886609959055424</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="11"/>
+        <v>-0.29028467725446333</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="12"/>
+        <v>-29.028467725446333</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="13"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="9"/>
+        <v>345.9375</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="10"/>
+        <v>6.0377483811178836</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="11"/>
+        <v>-0.24298017990326418</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="12"/>
+        <v>-24.298017990326418</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="13"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="9"/>
+        <v>348.75</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="10"/>
+        <v>6.0868357663302239</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="11"/>
+        <v>-0.19509032201612872</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="12"/>
+        <v>-19.509032201612872</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="13"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="9"/>
+        <v>351.5625</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="10"/>
+        <v>6.1359231515425652</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="11"/>
+        <v>-0.1467304744553615</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="12"/>
+        <v>-14.673047445536151</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="13"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="9"/>
+        <v>354.375</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="10"/>
+        <v>6.1850105367549055</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="11"/>
+        <v>-9.8017140329560506E-2</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="12"/>
+        <v>-9.8017140329560508</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="13"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f t="shared" si="9"/>
+        <v>357.1875</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="10"/>
+        <v>6.234097921967245</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="11"/>
+        <v>-4.9067674327418979E-2</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="12"/>
+        <v>-4.9067674327418977</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>A3*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>SIN(B3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>C3*100</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(D3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+5.625</f>
+        <v>5.625</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B66" si="0">A4*PI()/180</f>
+        <v>9.8174770424681035E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C66" si="1">SIN(B4)</f>
+        <v>9.8017140329560604E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D66" si="2">C4*100</f>
+        <v>9.8017140329560597</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E66" si="3">ROUND(D4,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A66" si="4">A4+5.625</f>
+        <v>11.25</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.19634954084936207</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.19509032201612825</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>19.509032201612825</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="4"/>
+        <v>16.875</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.2945243112740431</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.29028467725446233</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>29.028467725446234</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508978</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>38.268343236508976</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="4"/>
+        <v>28.125</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.49087385212340517</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.47139673682599764</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>47.139673682599764</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="4"/>
+        <v>33.75</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>55.557023301960214</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>39.375</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.68722339297276724</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.63439328416364549</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>63.439328416364546</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>70.710678118654741</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>50.625</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.8835729338221292</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.77301045336273688</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>77.301045336273688</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.98174770424681035</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>83.146961230254519</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>61.875</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.0799224746714915</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.88192126434835505</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>88.192126434835501</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>67.5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>92.387953251128678</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>73.125</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.2762720155208536</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.95694033573220894</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>95.694033573220892</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>78.75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.3744467859455345</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>98.07852804032305</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>84.375</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.4726215563702156</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.99518472667219693</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>99.518472667219697</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>95.625</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.6689710972195775</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.99518472667219693</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>99.518472667219697</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>101.25</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.7671458676442584</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323054</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>98.07852804032305</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>106.875</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.8653206380689398</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.95694033573220882</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>95.694033573220878</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>112.5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.9634954084936207</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>92.387953251128678</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>118.125</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.0616701789183014</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.88192126434835527</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>88.192126434835529</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>123.75</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.159844949342983</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254512</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>83.146961230254519</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>129.375</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.2580197197676637</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.7730104533627371</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>77.301045336273717</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>140.625</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.454369260617026</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.63439328416364549</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>63.439328416364546</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>146.25</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.5525440310417071</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>55.557023301960214</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>151.875</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.47139673682599786</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>47.139673682599785</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>157.5</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.748893571891069</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508989</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>38.26834323650899</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>163.125</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.8470683423157501</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.29028467725446239</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>29.028467725446237</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>168.75</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.9452431127404313</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.19509032201612816</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>19.509032201612815</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>174.375</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>3.043417883165112</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>9.8017140329560826E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>9.8017140329560828</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>1.22514845490862E-14</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>185.625</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>3.2397674240144743</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>-9.801714032956059E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>-9.8017140329560597</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>191.25</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>3.337942194439155</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>-0.19509032201612792</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-19.50903220161279</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>196.875</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>3.4361169648638361</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>-0.29028467725446211</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>-29.028467725446212</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>202.5</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>3.5342917352885168</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236508923</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>-38.268343236508926</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>208.125</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>3.6324665057131984</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>-0.47139673682599764</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>-47.139673682599764</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>213.75</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>3.7306412761378795</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>-0.55557023301960229</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>-55.557023301960228</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>219.375</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>3.8288160465625602</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>-0.63439328416364527</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>-63.439328416364525</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>-70.710678118654741</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>230.625</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>4.025165587411923</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>-0.77301045336273722</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>-77.301045336273717</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>236.25</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>4.1233403578366028</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>-0.83146961230254479</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>-83.146961230254476</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>241.875</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>4.2215151282612844</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>-0.88192126434835494</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>-88.192126434835501</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>247.5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>4.319689898685966</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128685</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>-92.387953251128678</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>253.125</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>4.4178646691106467</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>-0.95694033573220882</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>-95.694033573220878</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>258.75</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>4.5160394395353274</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>-0.98078528040323032</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>-98.078528040323036</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>264.375</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>4.614214209960009</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>-99.518472667219697</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="4"/>
+        <v>275.625</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>4.8105637508093704</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>-99.518472667219697</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="4"/>
+        <v>281.25</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>-98.07852804032305</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="4"/>
+        <v>286.875</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>5.0069132916587327</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>-0.95694033573220894</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>-95.694033573220892</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="4"/>
+        <v>292.5</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>5.1050880620834143</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128663</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>-92.387953251128664</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="4"/>
+        <v>298.125</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>5.203262832508095</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>-0.88192126434835505</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>-88.192126434835501</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="4"/>
+        <v>303.75</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>5.3014376029327757</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>-0.83146961230254546</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>-83.146961230254547</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>309.375</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>5.3996123733574573</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>-0.77301045336273688</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>-77.301045336273688</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>-70.710678118654769</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>320.625</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>5.5959619142068187</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>-0.63439328416364593</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>-63.439328416364596</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>326.25</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>5.6941366846315002</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>-0.55557023301960218</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>-55.557023301960214</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>331.875</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>5.7923114550561809</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>-0.47139673682599792</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>-47.139673682599792</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>337.5</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>5.8904862254808625</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236508956</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>-38.268343236508954</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>343.125</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>5.9886609959055424</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>-0.29028467725446333</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>-29.028467725446333</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>348.75</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>6.0868357663302239</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>-0.19509032201612872</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>-19.509032201612872</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>354.375</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>6.1850105367549055</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>-9.8017140329560506E-2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>-9.8017140329560508</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>